--- a/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,64%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>27,08; 34,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>43,23; 50,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>30,51; 37,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>10,41; 16,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>34,33; 41,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>48,36; 56,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>33,15; 40,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>12,62; 18,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>31,92; 37,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>46,72; 52,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>32,83; 38,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>12,65; 16,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>27,58; 33,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>45,33; 51,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>31,1; 37,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,05; 16,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>31,5; 38,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>52,23; 58,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>40,2; 46,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>20,37; 24,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>30,66; 35,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>49,73; 54,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>36,45; 40,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>11,68; 19,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>24,93; 32,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>40,99; 48,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,51; 34,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,91; 14,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>29,8; 36,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>49,04; 56,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>36,5; 43,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>15,25; 65,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>28,63; 33,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>46,47; 51,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>33,09; 38,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>13,15; 50,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>24,19; 29,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>36,02; 42,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>24,08; 29,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,38; 13,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>29,63; 35,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>43,17; 49,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>31,64; 37,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>10,17; 14,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>27,93; 31,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>40,59; 45,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>28,93; 33,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>10,5; 13,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>27,69; 30,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>43,01; 46,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>29,68; 32,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,17; 13,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>32,84; 36,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>49,9; 53,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>37,04; 40,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>16,36; 34,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>30,74; 33,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>47,08; 49,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>33,89; 36,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,87; 24,37</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,08; 34,31</t>
+          <t>27,55; 34,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,23; 50,81</t>
+          <t>43,32; 50,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 37,55</t>
+          <t>30,29; 37,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 16,17</t>
+          <t>10,83; 16,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,33; 41,78</t>
+          <t>34,43; 41,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,36; 56,43</t>
+          <t>47,93; 55,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,15; 40,54</t>
+          <t>33,04; 40,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 18,47</t>
+          <t>12,49; 18,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,92; 37,2</t>
+          <t>31,92; 37,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,72; 52,33</t>
+          <t>46,98; 52,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 38,2</t>
+          <t>32,86; 38,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 16,55</t>
+          <t>12,42; 16,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 33,59</t>
+          <t>27,7; 34,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 51,81</t>
+          <t>45,16; 51,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 37,24</t>
+          <t>31,25; 37,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 16,0</t>
+          <t>6,04; 16,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,5; 38,16</t>
+          <t>31,78; 38,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,23; 58,95</t>
+          <t>52,66; 58,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,2; 46,48</t>
+          <t>40,1; 46,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 24,81</t>
+          <t>20,54; 24,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,66; 35,07</t>
+          <t>30,67; 34,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,73; 54,34</t>
+          <t>49,78; 54,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,45; 40,78</t>
+          <t>36,45; 40,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,58</t>
+          <t>10,99; 19,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,93; 32,0</t>
+          <t>25,06; 32,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,99; 48,67</t>
+          <t>40,79; 48,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,51; 34,63</t>
+          <t>27,73; 34,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,6</t>
+          <t>8,87; 14,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 36,85</t>
+          <t>29,98; 36,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,04; 56,55</t>
+          <t>49,23; 56,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,5; 43,41</t>
+          <t>36,48; 43,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 65,62</t>
+          <t>15,05; 62,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,63; 33,76</t>
+          <t>28,59; 33,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,47; 51,63</t>
+          <t>46,09; 51,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,09; 38,07</t>
+          <t>33,2; 38,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 50,59</t>
+          <t>13,25; 48,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,19; 29,84</t>
+          <t>24,1; 29,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,02; 42,48</t>
+          <t>36,2; 42,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,08; 29,83</t>
+          <t>24,11; 30,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,56</t>
+          <t>9,19; 13,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 35,44</t>
+          <t>29,58; 35,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,17; 49,48</t>
+          <t>43,48; 49,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,64; 37,79</t>
+          <t>31,13; 37,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,68</t>
+          <t>9,99; 14,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,93; 31,89</t>
+          <t>27,68; 31,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,59; 45,26</t>
+          <t>40,88; 45,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 33,09</t>
+          <t>28,67; 32,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 13,55</t>
+          <t>10,49; 13,53</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,79</t>
+          <t>27,44; 30,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,01; 46,55</t>
+          <t>43,15; 46,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,76</t>
+          <t>29,7; 32,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,41</t>
+          <t>9,61; 13,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,14</t>
+          <t>32,87; 36,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,9; 53,26</t>
+          <t>49,93; 53,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,04; 40,37</t>
+          <t>37,04; 40,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 34,87</t>
+          <t>16,39; 36,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 33,06</t>
+          <t>30,68; 32,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,08; 49,53</t>
+          <t>46,82; 49,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 36,32</t>
+          <t>33,91; 36,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 24,37</t>
+          <t>13,87; 26,0</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son no remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>214277</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>329943</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>228754</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>83078</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>261595</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>362937</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>248483</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>116125</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>475872</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>692880</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>477237</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>199203</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>191187; 239538</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>304724; 355353</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>204368; 254109</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>68821; 103440</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>237023; 287657</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>334126; 389167</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>222286; 273020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>90592; 136278</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>441287; 512707</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>657916; 735263</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>442775; 516508</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>168960; 224581</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>294991</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>493025</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>346759</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>144948</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>337226</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>572935</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>450850</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>217129</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>632217</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1065961</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>797609</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>362077</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>266396; 328633</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>459723; 526082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>319556; 378636</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>72096; 193774</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>307787; 370139</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>543506; 605210</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>418193; 482772</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>196867; 239066</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>592004; 673383</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1020606; 1110662</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>752799; 843225</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>236442; 419626</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>193518</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>338312</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>235754</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>79720</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>229162</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>413206</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>313479</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>321229</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>422680</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>751518</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>549233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>400949</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>170030; 219308</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>309000; 369067</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>210654; 264744</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>62522; 100517</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>205016; 252728</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>382586; 441786</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>286348; 341743</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>140460; 586643</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>389522; 459543</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>707422; 790395</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>512736; 587789</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>217056; 801012</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>252647</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>373307</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>251424</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>105188</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>338941</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>486762</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>360792</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138808</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>591588</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>860069</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>612216</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>243996</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>227032; 278633</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>343068; 402836</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>226076; 282261</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>85163; 126055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>307198; 369182</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>457412; 523310</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>324913; 390288</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>109414; 159446</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>548297; 632577</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>817465; 906268</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>568087; 650513</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>212000; 273600</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>955433</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1534588</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1062691</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>412934</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1166924</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1835841</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1373604</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>793292</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2122357</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3370428</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2436295</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1206225</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>899229; 1010203</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1478659; 1593946</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1007995; 1110714</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>332435; 462865</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1110807; 1218215</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1776561; 1901319</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1312864; 1434726</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>608615; 1348448</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2042280; 2190236</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3270192; 3452205</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2353086; 2516177</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>995109; 1864797</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>